--- a/Code/Results/Cases/Case_3_96/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_96/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9833263086258092</v>
+        <v>1.019008834503968</v>
       </c>
       <c r="D2">
-        <v>1.004581950060298</v>
+        <v>1.024525588268876</v>
       </c>
       <c r="E2">
-        <v>0.9919696055661764</v>
+        <v>1.020190472673558</v>
       </c>
       <c r="F2">
-        <v>0.9616474369338114</v>
+        <v>1.032940651327546</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036629943650636</v>
+        <v>1.029328067124957</v>
       </c>
       <c r="J2">
-        <v>1.006017426837054</v>
+        <v>1.024214032409659</v>
       </c>
       <c r="K2">
-        <v>1.015977818003667</v>
+        <v>1.027353833164618</v>
       </c>
       <c r="L2">
-        <v>1.003541961970333</v>
+        <v>1.023031491326732</v>
       </c>
       <c r="M2">
-        <v>0.9736682683842323</v>
+        <v>1.035744433281276</v>
       </c>
       <c r="N2">
-        <v>1.005730993508626</v>
+        <v>1.012108334454404</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9889047633423615</v>
+        <v>1.020123686371282</v>
       </c>
       <c r="D3">
-        <v>1.008738835357299</v>
+        <v>1.025350889887488</v>
       </c>
       <c r="E3">
-        <v>0.9964840796029097</v>
+        <v>1.021140823844667</v>
       </c>
       <c r="F3">
-        <v>0.973961294980226</v>
+        <v>1.035186782754046</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038791054392313</v>
+        <v>1.029632716461576</v>
       </c>
       <c r="J3">
-        <v>1.00970253454186</v>
+        <v>1.024964587939291</v>
       </c>
       <c r="K3">
-        <v>1.019261109016201</v>
+        <v>1.027986195009908</v>
       </c>
       <c r="L3">
-        <v>1.007162145840841</v>
+        <v>1.023787632899246</v>
       </c>
       <c r="M3">
-        <v>0.9849385559712233</v>
+        <v>1.03779560589015</v>
       </c>
       <c r="N3">
-        <v>1.006990345980089</v>
+        <v>1.012361262998139</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9924171206546867</v>
+        <v>1.02084458527579</v>
       </c>
       <c r="D4">
-        <v>1.011353538486994</v>
+        <v>1.025884109190973</v>
       </c>
       <c r="E4">
-        <v>0.9993326778520373</v>
+        <v>1.021755709313386</v>
       </c>
       <c r="F4">
-        <v>0.9815595508653577</v>
+        <v>1.036633551855234</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040124976630744</v>
+        <v>1.029827392179558</v>
       </c>
       <c r="J4">
-        <v>1.012016806560379</v>
+        <v>1.025449262252439</v>
       </c>
       <c r="K4">
-        <v>1.021316840635902</v>
+        <v>1.028393928027014</v>
       </c>
       <c r="L4">
-        <v>1.009439163542196</v>
+        <v>1.02427623824209</v>
       </c>
       <c r="M4">
-        <v>0.9918857517657298</v>
+        <v>1.039115915420564</v>
       </c>
       <c r="N4">
-        <v>1.007780762118753</v>
+        <v>1.012524466671664</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9938716584689337</v>
+        <v>1.021147537591646</v>
       </c>
       <c r="D5">
-        <v>1.012435736634308</v>
+        <v>1.026108083243806</v>
       </c>
       <c r="E5">
-        <v>1.000513764444444</v>
+        <v>1.022014195338225</v>
       </c>
       <c r="F5">
-        <v>0.9846731895896743</v>
+        <v>1.037240222885338</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040671188488341</v>
+        <v>1.029908649152297</v>
       </c>
       <c r="J5">
-        <v>1.012973774893166</v>
+        <v>1.025652785139086</v>
       </c>
       <c r="K5">
-        <v>1.022165459070492</v>
+        <v>1.02856499422881</v>
       </c>
       <c r="L5">
-        <v>1.01038154809167</v>
+        <v>1.024481489259636</v>
       </c>
       <c r="M5">
-        <v>0.9947308401533455</v>
+        <v>1.039669346633664</v>
       </c>
       <c r="N5">
-        <v>1.008107483175706</v>
+        <v>1.012592968350483</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9941146219776891</v>
+        <v>1.021198398029371</v>
       </c>
       <c r="D6">
-        <v>1.012616470044821</v>
+        <v>1.026145678298791</v>
       </c>
       <c r="E6">
-        <v>1.000711133432269</v>
+        <v>1.022057595626102</v>
       </c>
       <c r="F6">
-        <v>0.9851914594169965</v>
+        <v>1.037341995725342</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040762068626442</v>
+        <v>1.029922258340247</v>
       </c>
       <c r="J6">
-        <v>1.013133542174836</v>
+        <v>1.025686943842487</v>
       </c>
       <c r="K6">
-        <v>1.022307053529055</v>
+        <v>1.02859369683006</v>
       </c>
       <c r="L6">
-        <v>1.010538928281004</v>
+        <v>1.024515942545751</v>
       </c>
       <c r="M6">
-        <v>0.9952043047163804</v>
+        <v>1.039762175734758</v>
       </c>
       <c r="N6">
-        <v>1.008162022294954</v>
+        <v>1.01260446369783</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9924366413870023</v>
+        <v>1.020848633782028</v>
       </c>
       <c r="D7">
-        <v>1.011368064575644</v>
+        <v>1.025887102692573</v>
       </c>
       <c r="E7">
-        <v>0.999348523143511</v>
+        <v>1.021759163260527</v>
       </c>
       <c r="F7">
-        <v>0.9816014629283037</v>
+        <v>1.03664166426801</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040132331325181</v>
+        <v>1.029828480233165</v>
       </c>
       <c r="J7">
-        <v>1.012029655218955</v>
+        <v>1.025451982652866</v>
       </c>
       <c r="K7">
-        <v>1.02132824019613</v>
+        <v>1.028396215174026</v>
       </c>
       <c r="L7">
-        <v>1.009451813170503</v>
+        <v>1.02427898143745</v>
       </c>
       <c r="M7">
-        <v>0.9919240559613437</v>
+        <v>1.039123316743017</v>
       </c>
       <c r="N7">
-        <v>1.007785149307738</v>
+        <v>1.012525382422532</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9852324945334021</v>
+        <v>1.019385705795652</v>
       </c>
       <c r="D8">
-        <v>1.006002940502629</v>
+        <v>1.02480467069812</v>
       </c>
       <c r="E8">
-        <v>0.993510895193801</v>
+        <v>1.020511660606665</v>
       </c>
       <c r="F8">
-        <v>0.9658905901149619</v>
+        <v>1.033701136233717</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037374204075292</v>
+        <v>1.029431534177024</v>
       </c>
       <c r="J8">
-        <v>1.007277918895266</v>
+        <v>1.024467891204816</v>
       </c>
       <c r="K8">
-        <v>1.017102207516092</v>
+        <v>1.027567843564385</v>
       </c>
       <c r="L8">
-        <v>1.004779488964422</v>
+        <v>1.023287172274269</v>
       </c>
       <c r="M8">
-        <v>0.9775533147347416</v>
+        <v>1.036439093278321</v>
       </c>
       <c r="N8">
-        <v>1.00616184722393</v>
+        <v>1.012193907978995</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9717303305506105</v>
+        <v>1.016804013947487</v>
       </c>
       <c r="D9">
-        <v>0.9959247826172559</v>
+        <v>1.022891038978034</v>
       </c>
       <c r="E9">
-        <v>0.9826221300411146</v>
+        <v>1.018312913156336</v>
       </c>
       <c r="F9">
-        <v>0.9349471225440642</v>
+        <v>1.028467149423053</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031974439527656</v>
+        <v>1.028713164883348</v>
       </c>
       <c r="J9">
-        <v>0.9983224368495754</v>
+        <v>1.022726172640136</v>
       </c>
       <c r="K9">
-        <v>1.009084325227093</v>
+        <v>1.026096981365483</v>
       </c>
       <c r="L9">
-        <v>0.9960035871394872</v>
+        <v>1.021534288975039</v>
       </c>
       <c r="M9">
-        <v>0.9491918613857051</v>
+        <v>1.031654497740059</v>
       </c>
       <c r="N9">
-        <v>1.003099180630869</v>
+        <v>1.011606276739863</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.962084039575165</v>
+        <v>1.01508015174329</v>
       </c>
       <c r="D10">
-        <v>0.9887045493314919</v>
+        <v>1.021610973705911</v>
       </c>
       <c r="E10">
-        <v>0.974882183287455</v>
+        <v>1.016846658024074</v>
       </c>
       <c r="F10">
-        <v>0.9113604631638498</v>
+        <v>1.024940281423109</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027932390734669</v>
+        <v>1.02822138133988</v>
       </c>
       <c r="J10">
-        <v>0.9918871650515643</v>
+        <v>1.021559788894972</v>
       </c>
       <c r="K10">
-        <v>1.003280786118069</v>
+        <v>1.025108782824719</v>
       </c>
       <c r="L10">
-        <v>0.9897202564468229</v>
+        <v>1.020362114640171</v>
       </c>
       <c r="M10">
-        <v>0.9275385082708505</v>
+        <v>1.028425866110168</v>
       </c>
       <c r="N10">
-        <v>1.000896965861871</v>
+        <v>1.011212114801513</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9577256631484518</v>
+        <v>1.014333014472</v>
       </c>
       <c r="D11">
-        <v>0.9854355361738272</v>
+        <v>1.021055642916056</v>
       </c>
       <c r="E11">
-        <v>0.9713952567651782</v>
+        <v>1.016211630432064</v>
       </c>
       <c r="F11">
-        <v>0.9002023028988552</v>
+        <v>1.02340368262552</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02605313566911</v>
+        <v>1.028005343314555</v>
       </c>
       <c r="J11">
-        <v>0.9889693497091824</v>
+        <v>1.021053463261541</v>
       </c>
       <c r="K11">
-        <v>1.000637444844482</v>
+        <v>1.024679046449133</v>
       </c>
       <c r="L11">
-        <v>0.9868775585510398</v>
+        <v>1.019853677087561</v>
       </c>
       <c r="M11">
-        <v>0.9172882617743718</v>
+        <v>1.027018119693067</v>
       </c>
       <c r="N11">
-        <v>0.9998983298241509</v>
+        <v>1.011040859274587</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.956076477911706</v>
+        <v>1.014055386873034</v>
       </c>
       <c r="D12">
-        <v>0.9841972645860695</v>
+        <v>1.02084920759535</v>
       </c>
       <c r="E12">
-        <v>0.9700774062172017</v>
+        <v>1.015975731400945</v>
       </c>
       <c r="F12">
-        <v>0.8958868799964166</v>
+        <v>1.02283145759049</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025332955654225</v>
+        <v>1.027924629206382</v>
       </c>
       <c r="J12">
-        <v>0.9878635378383134</v>
+        <v>1.020865197627453</v>
       </c>
       <c r="K12">
-        <v>0.9996336143652491</v>
+        <v>1.024519144326626</v>
       </c>
       <c r="L12">
-        <v>0.9858012411673959</v>
+        <v>1.019664686712495</v>
       </c>
       <c r="M12">
-        <v>0.9133231662850487</v>
+        <v>1.026493716215581</v>
       </c>
       <c r="N12">
-        <v>0.9995198620234357</v>
+        <v>1.010977159354904</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9564316601926462</v>
+        <v>1.014114943856643</v>
       </c>
       <c r="D13">
-        <v>0.9844640133243245</v>
+        <v>1.020893495984955</v>
       </c>
       <c r="E13">
-        <v>0.970361157178245</v>
+        <v>1.016026333550788</v>
       </c>
       <c r="F13">
-        <v>0.8968208444083444</v>
+        <v>1.02295426878061</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025488491543009</v>
+        <v>1.027941963887619</v>
       </c>
       <c r="J13">
-        <v>0.9881017765356275</v>
+        <v>1.020905590051334</v>
       </c>
       <c r="K13">
-        <v>0.9998499788451064</v>
+        <v>1.0245534565358</v>
       </c>
       <c r="L13">
-        <v>0.9860330774711579</v>
+        <v>1.019705231888318</v>
       </c>
       <c r="M13">
-        <v>0.9141813437697806</v>
+        <v>1.026606271278455</v>
       </c>
       <c r="N13">
-        <v>0.9996013995664602</v>
+        <v>1.01099082719765</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9575899787197339</v>
+        <v>1.014310067901615</v>
       </c>
       <c r="D14">
-        <v>0.9853336873938541</v>
+        <v>1.021038582201037</v>
       </c>
       <c r="E14">
-        <v>0.9712868000204248</v>
+        <v>1.016192131395422</v>
       </c>
       <c r="F14">
-        <v>0.8998492719619267</v>
+        <v>1.023356412452446</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025994075784287</v>
+        <v>1.027998681027222</v>
       </c>
       <c r="J14">
-        <v>0.9888784069581235</v>
+        <v>1.021037905131868</v>
       </c>
       <c r="K14">
-        <v>1.000554932171207</v>
+        <v>1.024665834593779</v>
       </c>
       <c r="L14">
-        <v>0.9867890200386461</v>
+        <v>1.019838057830502</v>
       </c>
       <c r="M14">
-        <v>0.9169639049540407</v>
+        <v>1.026974803262328</v>
       </c>
       <c r="N14">
-        <v>0.9998672041995874</v>
+        <v>1.011035595618654</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.958299541753407</v>
+        <v>1.014430275913095</v>
       </c>
       <c r="D15">
-        <v>0.9858662519705259</v>
+        <v>1.021127953235617</v>
       </c>
       <c r="E15">
-        <v>0.971854040292898</v>
+        <v>1.016294282006955</v>
       </c>
       <c r="F15">
-        <v>0.9016915399372071</v>
+        <v>1.023603991099667</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026302553348966</v>
+        <v>1.028033564217207</v>
       </c>
       <c r="J15">
-        <v>0.9893539214458721</v>
+        <v>1.021119403074221</v>
       </c>
       <c r="K15">
-        <v>1.000986283575442</v>
+        <v>1.024735037392428</v>
       </c>
       <c r="L15">
-        <v>0.9872520057052002</v>
+        <v>1.01991987845436</v>
       </c>
       <c r="M15">
-        <v>0.9186565077371787</v>
+        <v>1.027201667435825</v>
       </c>
       <c r="N15">
-        <v>1.000029951676059</v>
+        <v>1.011063167238431</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9623692230064016</v>
+        <v>1.015129721885994</v>
       </c>
       <c r="D16">
-        <v>0.9889182910096145</v>
+        <v>1.021647806771811</v>
       </c>
       <c r="E16">
-        <v>0.975110559788175</v>
+        <v>1.016888799811779</v>
       </c>
       <c r="F16">
-        <v>0.9120788189708794</v>
+        <v>1.025042057650366</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028054173801456</v>
+        <v>1.028235653632051</v>
       </c>
       <c r="J16">
-        <v>0.9920778615221409</v>
+        <v>1.021593365020736</v>
       </c>
       <c r="K16">
-        <v>1.003453278177809</v>
+        <v>1.025137264038259</v>
       </c>
       <c r="L16">
-        <v>0.9899061793027614</v>
+        <v>1.020395839284858</v>
       </c>
       <c r="M16">
-        <v>0.9281982924330773</v>
+        <v>1.028519085060233</v>
       </c>
       <c r="N16">
-        <v>1.000962231625454</v>
+        <v>1.011223468167754</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9648714920942395</v>
+        <v>1.015568277829754</v>
       </c>
       <c r="D17">
-        <v>0.990792927542542</v>
+        <v>1.021973613294515</v>
       </c>
       <c r="E17">
-        <v>0.9771155429672675</v>
+        <v>1.017261689026247</v>
       </c>
       <c r="F17">
-        <v>0.9183237158213138</v>
+        <v>1.025941559271135</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029116651875023</v>
+        <v>1.028361588686789</v>
       </c>
       <c r="J17">
-        <v>0.9937499088559528</v>
+        <v>1.021890326136903</v>
       </c>
       <c r="K17">
-        <v>1.004964339195531</v>
+        <v>1.02538907586546</v>
       </c>
       <c r="L17">
-        <v>0.9915370807866424</v>
+        <v>1.020694160336274</v>
       </c>
       <c r="M17">
-        <v>0.9339332892442689</v>
+        <v>1.029342832348577</v>
       </c>
       <c r="N17">
-        <v>1.001534476404802</v>
+        <v>1.011323864695111</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9663137469286401</v>
+        <v>1.015824013403481</v>
       </c>
       <c r="D18">
-        <v>0.9918728140668507</v>
+        <v>1.022163549188213</v>
       </c>
       <c r="E18">
-        <v>0.9782721213884825</v>
+        <v>1.017479176649505</v>
       </c>
       <c r="F18">
-        <v>0.9218774060401979</v>
+        <v>1.026465315466092</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029724147822015</v>
+        <v>1.028434746322201</v>
       </c>
       <c r="J18">
-        <v>0.9947126942120005</v>
+        <v>1.022063415795117</v>
       </c>
       <c r="K18">
-        <v>1.005833323625017</v>
+        <v>1.025535776092644</v>
       </c>
       <c r="L18">
-        <v>0.9924767511024575</v>
+        <v>1.020868081355248</v>
       </c>
       <c r="M18">
-        <v>0.9371961936944823</v>
+        <v>1.029822374528934</v>
       </c>
       <c r="N18">
-        <v>1.001863968228655</v>
+        <v>1.011382368302168</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9668026703222131</v>
+        <v>1.015911201413948</v>
       </c>
       <c r="D19">
-        <v>0.9922387971051833</v>
+        <v>1.022228295267419</v>
       </c>
       <c r="E19">
-        <v>0.9786643596651133</v>
+        <v>1.01755333227569</v>
       </c>
       <c r="F19">
-        <v>0.9230747920200134</v>
+        <v>1.026643750159918</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029929286004436</v>
+        <v>1.028459640713858</v>
       </c>
       <c r="J19">
-        <v>0.9950389215281026</v>
+        <v>1.022122414148178</v>
       </c>
       <c r="K19">
-        <v>1.006127586574321</v>
+        <v>1.025585767070941</v>
       </c>
       <c r="L19">
-        <v>0.9927952418167146</v>
+        <v>1.020927369639684</v>
       </c>
       <c r="M19">
-        <v>0.9382954911628544</v>
+        <v>1.029985728581814</v>
       </c>
       <c r="N19">
-        <v>1.001975609355548</v>
+        <v>1.011402307045419</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9646048291823253</v>
+        <v>1.015521231849691</v>
       </c>
       <c r="D20">
-        <v>0.9905932158771139</v>
+        <v>1.021938667857876</v>
       </c>
       <c r="E20">
-        <v>0.9769017760096532</v>
+        <v>1.017221682834605</v>
       </c>
       <c r="F20">
-        <v>0.9176630688213275</v>
+        <v>1.025845145492011</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029003940561653</v>
+        <v>1.028348107910583</v>
       </c>
       <c r="J20">
-        <v>0.9935718209095237</v>
+        <v>1.02185847773204</v>
       </c>
       <c r="K20">
-        <v>1.004803513855375</v>
+        <v>1.02536207720172</v>
       </c>
       <c r="L20">
-        <v>0.9913633146754475</v>
+        <v>1.020662162076676</v>
       </c>
       <c r="M20">
-        <v>0.9333266485579826</v>
+        <v>1.029254549145687</v>
       </c>
       <c r="N20">
-        <v>1.001473528524337</v>
+        <v>1.011313098894368</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9572497465095315</v>
+        <v>1.014252611729779</v>
       </c>
       <c r="D21">
-        <v>0.9850782769563393</v>
+        <v>1.02099586238314</v>
       </c>
       <c r="E21">
-        <v>0.9710148675757626</v>
+        <v>1.016143308673105</v>
       </c>
       <c r="F21">
-        <v>0.8989624671781046</v>
+        <v>1.023238031941127</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025845831099436</v>
+        <v>1.027981992188688</v>
       </c>
       <c r="J21">
-        <v>0.9886503371083303</v>
+        <v>1.020998947006301</v>
       </c>
       <c r="K21">
-        <v>1.000347969829825</v>
+        <v>1.024632749775784</v>
       </c>
       <c r="L21">
-        <v>0.986566996480374</v>
+        <v>1.019798947617849</v>
       </c>
       <c r="M21">
-        <v>0.9161491166638598</v>
+        <v>1.026866321633886</v>
       </c>
       <c r="N21">
-        <v>0.9997891462222469</v>
+        <v>1.011022414869456</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9524480376666272</v>
+        <v>1.013454355960376</v>
       </c>
       <c r="D22">
-        <v>0.9814700735220603</v>
+        <v>1.020402151953562</v>
       </c>
       <c r="E22">
-        <v>0.9671809271554912</v>
+        <v>1.015465166539779</v>
       </c>
       <c r="F22">
-        <v>0.8861947214461579</v>
+        <v>1.021590343868565</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023730089996261</v>
+        <v>1.027749091480602</v>
       </c>
       <c r="J22">
-        <v>0.9854271214836914</v>
+        <v>1.020457403734944</v>
       </c>
       <c r="K22">
-        <v>0.997417771400941</v>
+        <v>1.024172577787411</v>
       </c>
       <c r="L22">
-        <v>0.9834318299538956</v>
+        <v>1.019255433914406</v>
       </c>
       <c r="M22">
-        <v>0.9044165894481704</v>
+        <v>1.025356026269213</v>
       </c>
       <c r="N22">
-        <v>0.9986860200517627</v>
+        <v>1.010839140817871</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9550115127330933</v>
+        <v>1.013877586721547</v>
       </c>
       <c r="D23">
-        <v>0.9833972364687309</v>
+        <v>1.020716978161476</v>
       </c>
       <c r="E23">
-        <v>0.9692268541483847</v>
+        <v>1.015824675110585</v>
       </c>
       <c r="F23">
-        <v>0.8930711142609294</v>
+        <v>1.022464634817186</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02486516229311</v>
+        <v>1.027872814493376</v>
       </c>
       <c r="J23">
-        <v>0.9871489393498962</v>
+        <v>1.020744593246387</v>
       </c>
       <c r="K23">
-        <v>0.9989843047222491</v>
+        <v>1.024416677578936</v>
       </c>
       <c r="L23">
-        <v>0.9851060056692303</v>
+        <v>1.019543635118603</v>
       </c>
       <c r="M23">
-        <v>0.9107357870190655</v>
+        <v>1.026157503493056</v>
       </c>
       <c r="N23">
-        <v>0.9992752917050929</v>
+        <v>1.010936346400376</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9647253758424409</v>
+        <v>1.01554249010948</v>
       </c>
       <c r="D24">
-        <v>0.9906834986903579</v>
+        <v>1.021954458510562</v>
       </c>
       <c r="E24">
-        <v>0.976998407776809</v>
+        <v>1.017239759949103</v>
       </c>
       <c r="F24">
-        <v>0.9179618592692737</v>
+        <v>1.025888713532147</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029054907546049</v>
+        <v>1.028354200214374</v>
       </c>
       <c r="J24">
-        <v>0.9936523296238636</v>
+        <v>1.021872869034841</v>
       </c>
       <c r="K24">
-        <v>1.00487622202529</v>
+        <v>1.025374277283963</v>
       </c>
       <c r="L24">
-        <v>0.9914418678185941</v>
+        <v>1.020676620974563</v>
       </c>
       <c r="M24">
-        <v>0.9336010155641105</v>
+        <v>1.029294443414412</v>
       </c>
       <c r="N24">
-        <v>1.001501081446755</v>
+        <v>1.011317963669427</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9753262395938741</v>
+        <v>1.017471913078117</v>
       </c>
       <c r="D25">
-        <v>0.9986117855113584</v>
+        <v>1.023386510215152</v>
       </c>
       <c r="E25">
-        <v>0.9855156059037559</v>
+        <v>1.018881409605203</v>
       </c>
       <c r="F25">
-        <v>0.9434012941978455</v>
+        <v>1.029826705752743</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033441571124908</v>
+        <v>1.028901136892453</v>
       </c>
       <c r="J25">
-        <v>1.00071349380695</v>
+        <v>1.023177363495915</v>
       </c>
       <c r="K25">
-        <v>1.011231690014269</v>
+        <v>1.026478569510703</v>
       </c>
       <c r="L25">
-        <v>0.9983430135037259</v>
+        <v>1.021988076057855</v>
       </c>
       <c r="M25">
-        <v>0.9569467411738078</v>
+        <v>1.032898126495004</v>
       </c>
       <c r="N25">
-        <v>1.003917197247642</v>
+        <v>1.011758615361263</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_96/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_96/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.019008834503968</v>
+        <v>0.9833263086258097</v>
       </c>
       <c r="D2">
-        <v>1.024525588268876</v>
+        <v>1.004581950060299</v>
       </c>
       <c r="E2">
-        <v>1.020190472673558</v>
+        <v>0.9919696055661772</v>
       </c>
       <c r="F2">
-        <v>1.032940651327546</v>
+        <v>0.9616474369338119</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029328067124957</v>
+        <v>1.036629943650636</v>
       </c>
       <c r="J2">
-        <v>1.024214032409659</v>
+        <v>1.006017426837055</v>
       </c>
       <c r="K2">
-        <v>1.027353833164618</v>
+        <v>1.015977818003667</v>
       </c>
       <c r="L2">
-        <v>1.023031491326732</v>
+        <v>1.003541961970334</v>
       </c>
       <c r="M2">
-        <v>1.035744433281276</v>
+        <v>0.9736682683842328</v>
       </c>
       <c r="N2">
-        <v>1.012108334454404</v>
+        <v>1.005730993508626</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.020123686371282</v>
+        <v>0.9889047633423627</v>
       </c>
       <c r="D3">
-        <v>1.025350889887488</v>
+        <v>1.0087388353573</v>
       </c>
       <c r="E3">
-        <v>1.021140823844667</v>
+        <v>0.9964840796029107</v>
       </c>
       <c r="F3">
-        <v>1.035186782754046</v>
+        <v>0.9739612949802263</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029632716461576</v>
+        <v>1.038791054392314</v>
       </c>
       <c r="J3">
-        <v>1.024964587939291</v>
+        <v>1.009702534541861</v>
       </c>
       <c r="K3">
-        <v>1.027986195009908</v>
+        <v>1.019261109016202</v>
       </c>
       <c r="L3">
-        <v>1.023787632899246</v>
+        <v>1.007162145840842</v>
       </c>
       <c r="M3">
-        <v>1.03779560589015</v>
+        <v>0.9849385559712236</v>
       </c>
       <c r="N3">
-        <v>1.012361262998139</v>
+        <v>1.00699034598009</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02084458527579</v>
+        <v>0.9924171206546876</v>
       </c>
       <c r="D4">
-        <v>1.025884109190973</v>
+        <v>1.011353538486995</v>
       </c>
       <c r="E4">
-        <v>1.021755709313386</v>
+        <v>0.9993326778520378</v>
       </c>
       <c r="F4">
-        <v>1.036633551855234</v>
+        <v>0.9815595508653581</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.029827392179558</v>
+        <v>1.040124976630745</v>
       </c>
       <c r="J4">
-        <v>1.025449262252439</v>
+        <v>1.01201680656038</v>
       </c>
       <c r="K4">
-        <v>1.028393928027014</v>
+        <v>1.021316840635903</v>
       </c>
       <c r="L4">
-        <v>1.02427623824209</v>
+        <v>1.009439163542196</v>
       </c>
       <c r="M4">
-        <v>1.039115915420564</v>
+        <v>0.99188575176573</v>
       </c>
       <c r="N4">
-        <v>1.012524466671664</v>
+        <v>1.007780762118753</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021147537591646</v>
+        <v>0.9938716584689331</v>
       </c>
       <c r="D5">
-        <v>1.026108083243806</v>
+        <v>1.012435736634308</v>
       </c>
       <c r="E5">
-        <v>1.022014195338225</v>
+        <v>1.000513764444443</v>
       </c>
       <c r="F5">
-        <v>1.037240222885338</v>
+        <v>0.9846731895896754</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029908649152297</v>
+        <v>1.040671188488341</v>
       </c>
       <c r="J5">
-        <v>1.025652785139086</v>
+        <v>1.012973774893166</v>
       </c>
       <c r="K5">
-        <v>1.02856499422881</v>
+        <v>1.022165459070492</v>
       </c>
       <c r="L5">
-        <v>1.024481489259636</v>
+        <v>1.010381548091669</v>
       </c>
       <c r="M5">
-        <v>1.039669346633664</v>
+        <v>0.9947308401533466</v>
       </c>
       <c r="N5">
-        <v>1.012592968350483</v>
+        <v>1.008107483175706</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021198398029371</v>
+        <v>0.9941146219776881</v>
       </c>
       <c r="D6">
-        <v>1.026145678298791</v>
+        <v>1.012616470044819</v>
       </c>
       <c r="E6">
-        <v>1.022057595626102</v>
+        <v>1.000711133432268</v>
       </c>
       <c r="F6">
-        <v>1.037341995725342</v>
+        <v>0.9851914594169953</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029922258340247</v>
+        <v>1.040762068626442</v>
       </c>
       <c r="J6">
-        <v>1.025686943842487</v>
+        <v>1.013133542174835</v>
       </c>
       <c r="K6">
-        <v>1.02859369683006</v>
+        <v>1.022307053529053</v>
       </c>
       <c r="L6">
-        <v>1.024515942545751</v>
+        <v>1.010538928281003</v>
       </c>
       <c r="M6">
-        <v>1.039762175734758</v>
+        <v>0.9952043047163794</v>
       </c>
       <c r="N6">
-        <v>1.01260446369783</v>
+        <v>1.008162022294953</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020848633782028</v>
+        <v>0.9924366413870009</v>
       </c>
       <c r="D7">
-        <v>1.025887102692573</v>
+        <v>1.011368064575643</v>
       </c>
       <c r="E7">
-        <v>1.021759163260527</v>
+        <v>0.9993485231435097</v>
       </c>
       <c r="F7">
-        <v>1.03664166426801</v>
+        <v>0.981601462928303</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.029828480233165</v>
+        <v>1.04013233132518</v>
       </c>
       <c r="J7">
-        <v>1.025451982652866</v>
+        <v>1.012029655218953</v>
       </c>
       <c r="K7">
-        <v>1.028396215174026</v>
+        <v>1.021328240196129</v>
       </c>
       <c r="L7">
-        <v>1.02427898143745</v>
+        <v>1.009451813170502</v>
       </c>
       <c r="M7">
-        <v>1.039123316743017</v>
+        <v>0.9919240559613431</v>
       </c>
       <c r="N7">
-        <v>1.012525382422532</v>
+        <v>1.007785149307737</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.019385705795652</v>
+        <v>0.985232494533402</v>
       </c>
       <c r="D8">
-        <v>1.02480467069812</v>
+        <v>1.006002940502629</v>
       </c>
       <c r="E8">
-        <v>1.020511660606665</v>
+        <v>0.9935108951938014</v>
       </c>
       <c r="F8">
-        <v>1.033701136233717</v>
+        <v>0.965890590114962</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029431534177024</v>
+        <v>1.037374204075292</v>
       </c>
       <c r="J8">
-        <v>1.024467891204816</v>
+        <v>1.007277918895266</v>
       </c>
       <c r="K8">
-        <v>1.027567843564385</v>
+        <v>1.017102207516092</v>
       </c>
       <c r="L8">
-        <v>1.023287172274269</v>
+        <v>1.004779488964422</v>
       </c>
       <c r="M8">
-        <v>1.036439093278321</v>
+        <v>0.9775533147347414</v>
       </c>
       <c r="N8">
-        <v>1.012193907978995</v>
+        <v>1.00616184722393</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.016804013947487</v>
+        <v>0.9717303305506111</v>
       </c>
       <c r="D9">
-        <v>1.022891038978034</v>
+        <v>0.9959247826172563</v>
       </c>
       <c r="E9">
-        <v>1.018312913156336</v>
+        <v>0.9826221300411145</v>
       </c>
       <c r="F9">
-        <v>1.028467149423053</v>
+        <v>0.9349471225440655</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028713164883348</v>
+        <v>1.031974439527656</v>
       </c>
       <c r="J9">
-        <v>1.022726172640136</v>
+        <v>0.9983224368495757</v>
       </c>
       <c r="K9">
-        <v>1.026096981365483</v>
+        <v>1.009084325227094</v>
       </c>
       <c r="L9">
-        <v>1.021534288975039</v>
+        <v>0.9960035871394872</v>
       </c>
       <c r="M9">
-        <v>1.031654497740059</v>
+        <v>0.9491918613857065</v>
       </c>
       <c r="N9">
-        <v>1.011606276739863</v>
+        <v>1.003099180630869</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.01508015174329</v>
+        <v>0.9620840395751666</v>
       </c>
       <c r="D10">
-        <v>1.021610973705911</v>
+        <v>0.9887045493314931</v>
       </c>
       <c r="E10">
-        <v>1.016846658024074</v>
+        <v>0.9748821832874563</v>
       </c>
       <c r="F10">
-        <v>1.024940281423109</v>
+        <v>0.9113604631638524</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02822138133988</v>
+        <v>1.02793239073467</v>
       </c>
       <c r="J10">
-        <v>1.021559788894972</v>
+        <v>0.9918871650515658</v>
       </c>
       <c r="K10">
-        <v>1.025108782824719</v>
+        <v>1.00328078611807</v>
       </c>
       <c r="L10">
-        <v>1.020362114640171</v>
+        <v>0.9897202564468244</v>
       </c>
       <c r="M10">
-        <v>1.028425866110168</v>
+        <v>0.9275385082708532</v>
       </c>
       <c r="N10">
-        <v>1.011212114801513</v>
+        <v>1.000896965861872</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.014333014472</v>
+        <v>0.9577256631484536</v>
       </c>
       <c r="D11">
-        <v>1.021055642916056</v>
+        <v>0.9854355361738288</v>
       </c>
       <c r="E11">
-        <v>1.016211630432064</v>
+        <v>0.9713952567651797</v>
       </c>
       <c r="F11">
-        <v>1.02340368262552</v>
+        <v>0.9002023028988575</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028005343314555</v>
+        <v>1.026053135669111</v>
       </c>
       <c r="J11">
-        <v>1.021053463261541</v>
+        <v>0.9889693497091842</v>
       </c>
       <c r="K11">
-        <v>1.024679046449133</v>
+        <v>1.000637444844484</v>
       </c>
       <c r="L11">
-        <v>1.019853677087561</v>
+        <v>0.9868775585510411</v>
       </c>
       <c r="M11">
-        <v>1.027018119693067</v>
+        <v>0.9172882617743744</v>
       </c>
       <c r="N11">
-        <v>1.011040859274587</v>
+        <v>0.9998983298241515</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.014055386873034</v>
+        <v>0.9560764779117051</v>
       </c>
       <c r="D12">
-        <v>1.02084920759535</v>
+        <v>0.9841972645860688</v>
       </c>
       <c r="E12">
-        <v>1.015975731400945</v>
+        <v>0.9700774062172005</v>
       </c>
       <c r="F12">
-        <v>1.02283145759049</v>
+        <v>0.8958868799964148</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027924629206382</v>
+        <v>1.025332955654224</v>
       </c>
       <c r="J12">
-        <v>1.020865197627453</v>
+        <v>0.9878635378383126</v>
       </c>
       <c r="K12">
-        <v>1.024519144326626</v>
+        <v>0.9996336143652481</v>
       </c>
       <c r="L12">
-        <v>1.019664686712495</v>
+        <v>0.9858012411673948</v>
       </c>
       <c r="M12">
-        <v>1.026493716215581</v>
+        <v>0.9133231662850472</v>
       </c>
       <c r="N12">
-        <v>1.010977159354904</v>
+        <v>0.9995198620234355</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.014114943856643</v>
+        <v>0.9564316601926467</v>
       </c>
       <c r="D13">
-        <v>1.020893495984955</v>
+        <v>0.9844640133243251</v>
       </c>
       <c r="E13">
-        <v>1.016026333550788</v>
+        <v>0.9703611571782453</v>
       </c>
       <c r="F13">
-        <v>1.02295426878061</v>
+        <v>0.8968208444083446</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027941963887619</v>
+        <v>1.025488491543009</v>
       </c>
       <c r="J13">
-        <v>1.020905590051334</v>
+        <v>0.9881017765356281</v>
       </c>
       <c r="K13">
-        <v>1.0245534565358</v>
+        <v>0.999849978845107</v>
       </c>
       <c r="L13">
-        <v>1.019705231888318</v>
+        <v>0.9860330774711582</v>
       </c>
       <c r="M13">
-        <v>1.026606271278455</v>
+        <v>0.9141813437697807</v>
       </c>
       <c r="N13">
-        <v>1.01099082719765</v>
+        <v>0.9996013995664604</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.014310067901615</v>
+        <v>0.9575899787197348</v>
       </c>
       <c r="D14">
-        <v>1.021038582201037</v>
+        <v>0.9853336873938547</v>
       </c>
       <c r="E14">
-        <v>1.016192131395422</v>
+        <v>0.9712868000204253</v>
       </c>
       <c r="F14">
-        <v>1.023356412452446</v>
+        <v>0.899849271961928</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027998681027222</v>
+        <v>1.025994075784287</v>
       </c>
       <c r="J14">
-        <v>1.021037905131868</v>
+        <v>0.9888784069581242</v>
       </c>
       <c r="K14">
-        <v>1.024665834593779</v>
+        <v>1.000554932171208</v>
       </c>
       <c r="L14">
-        <v>1.019838057830502</v>
+        <v>0.9867890200386465</v>
       </c>
       <c r="M14">
-        <v>1.026974803262328</v>
+        <v>0.9169639049540418</v>
       </c>
       <c r="N14">
-        <v>1.011035595618654</v>
+        <v>0.9998672041995877</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.014430275913095</v>
+        <v>0.9582995417534055</v>
       </c>
       <c r="D15">
-        <v>1.021127953235617</v>
+        <v>0.9858662519705244</v>
       </c>
       <c r="E15">
-        <v>1.016294282006955</v>
+        <v>0.9718540402928968</v>
       </c>
       <c r="F15">
-        <v>1.023603991099667</v>
+        <v>0.901691539937206</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028033564217207</v>
+        <v>1.026302553348966</v>
       </c>
       <c r="J15">
-        <v>1.021119403074221</v>
+        <v>0.9893539214458703</v>
       </c>
       <c r="K15">
-        <v>1.024735037392428</v>
+        <v>1.00098628357544</v>
       </c>
       <c r="L15">
-        <v>1.01991987845436</v>
+        <v>0.9872520057051989</v>
       </c>
       <c r="M15">
-        <v>1.027201667435825</v>
+        <v>0.9186565077371776</v>
       </c>
       <c r="N15">
-        <v>1.011063167238431</v>
+        <v>1.000029951676059</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.015129721885994</v>
+        <v>0.9623692230064025</v>
       </c>
       <c r="D16">
-        <v>1.021647806771811</v>
+        <v>0.9889182910096148</v>
       </c>
       <c r="E16">
-        <v>1.016888799811779</v>
+        <v>0.9751105597881756</v>
       </c>
       <c r="F16">
-        <v>1.025042057650366</v>
+        <v>0.9120788189708803</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028235653632051</v>
+        <v>1.028054173801456</v>
       </c>
       <c r="J16">
-        <v>1.021593365020736</v>
+        <v>0.9920778615221417</v>
       </c>
       <c r="K16">
-        <v>1.025137264038259</v>
+        <v>1.00345327817781</v>
       </c>
       <c r="L16">
-        <v>1.020395839284858</v>
+        <v>0.9899061793027621</v>
       </c>
       <c r="M16">
-        <v>1.028519085060233</v>
+        <v>0.9281982924330781</v>
       </c>
       <c r="N16">
-        <v>1.011223468167754</v>
+        <v>1.000962231625454</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.015568277829754</v>
+        <v>0.9648714920942392</v>
       </c>
       <c r="D17">
-        <v>1.021973613294515</v>
+        <v>0.9907929275425416</v>
       </c>
       <c r="E17">
-        <v>1.017261689026247</v>
+        <v>0.9771155429672667</v>
       </c>
       <c r="F17">
-        <v>1.025941559271135</v>
+        <v>0.9183237158213132</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028361588686789</v>
+        <v>1.029116651875023</v>
       </c>
       <c r="J17">
-        <v>1.021890326136903</v>
+        <v>0.9937499088559524</v>
       </c>
       <c r="K17">
-        <v>1.02538907586546</v>
+        <v>1.00496433919553</v>
       </c>
       <c r="L17">
-        <v>1.020694160336274</v>
+        <v>0.9915370807866417</v>
       </c>
       <c r="M17">
-        <v>1.029342832348577</v>
+        <v>0.9339332892442683</v>
       </c>
       <c r="N17">
-        <v>1.011323864695111</v>
+        <v>1.001534476404802</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.015824013403481</v>
+        <v>0.96631374692864</v>
       </c>
       <c r="D18">
-        <v>1.022163549188213</v>
+        <v>0.9918728140668504</v>
       </c>
       <c r="E18">
-        <v>1.017479176649505</v>
+        <v>0.9782721213884823</v>
       </c>
       <c r="F18">
-        <v>1.026465315466092</v>
+        <v>0.9218774060401991</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028434746322201</v>
+        <v>1.029724147822015</v>
       </c>
       <c r="J18">
-        <v>1.022063415795117</v>
+        <v>0.9947126942120004</v>
       </c>
       <c r="K18">
-        <v>1.025535776092644</v>
+        <v>1.005833323625017</v>
       </c>
       <c r="L18">
-        <v>1.020868081355248</v>
+        <v>0.9924767511024574</v>
       </c>
       <c r="M18">
-        <v>1.029822374528934</v>
+        <v>0.9371961936944834</v>
       </c>
       <c r="N18">
-        <v>1.011382368302168</v>
+        <v>1.001863968228655</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.015911201413948</v>
+        <v>0.9668026703222142</v>
       </c>
       <c r="D19">
-        <v>1.022228295267419</v>
+        <v>0.9922387971051839</v>
       </c>
       <c r="E19">
-        <v>1.01755333227569</v>
+        <v>0.9786643596651142</v>
       </c>
       <c r="F19">
-        <v>1.026643750159918</v>
+        <v>0.9230747920200155</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028459640713858</v>
+        <v>1.029929286004436</v>
       </c>
       <c r="J19">
-        <v>1.022122414148178</v>
+        <v>0.9950389215281038</v>
       </c>
       <c r="K19">
-        <v>1.025585767070941</v>
+        <v>1.006127586574322</v>
       </c>
       <c r="L19">
-        <v>1.020927369639684</v>
+        <v>0.9927952418167157</v>
       </c>
       <c r="M19">
-        <v>1.029985728581814</v>
+        <v>0.9382954911628564</v>
       </c>
       <c r="N19">
-        <v>1.011402307045419</v>
+        <v>1.001975609355548</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.015521231849691</v>
+        <v>0.9646048291823248</v>
       </c>
       <c r="D20">
-        <v>1.021938667857876</v>
+        <v>0.9905932158771135</v>
       </c>
       <c r="E20">
-        <v>1.017221682834605</v>
+        <v>0.9769017760096529</v>
       </c>
       <c r="F20">
-        <v>1.025845145492011</v>
+        <v>0.917663068821327</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028348107910583</v>
+        <v>1.029003940561653</v>
       </c>
       <c r="J20">
-        <v>1.02185847773204</v>
+        <v>0.9935718209095232</v>
       </c>
       <c r="K20">
-        <v>1.02536207720172</v>
+        <v>1.004803513855375</v>
       </c>
       <c r="L20">
-        <v>1.020662162076676</v>
+        <v>0.9913633146754471</v>
       </c>
       <c r="M20">
-        <v>1.029254549145687</v>
+        <v>0.9333266485579821</v>
       </c>
       <c r="N20">
-        <v>1.011313098894368</v>
+        <v>1.001473528524337</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.014252611729779</v>
+        <v>0.9572497465095314</v>
       </c>
       <c r="D21">
-        <v>1.02099586238314</v>
+        <v>0.9850782769563391</v>
       </c>
       <c r="E21">
-        <v>1.016143308673105</v>
+        <v>0.9710148675757626</v>
       </c>
       <c r="F21">
-        <v>1.023238031941127</v>
+        <v>0.8989624671781038</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027981992188688</v>
+        <v>1.025845831099436</v>
       </c>
       <c r="J21">
-        <v>1.020998947006301</v>
+        <v>0.9886503371083302</v>
       </c>
       <c r="K21">
-        <v>1.024632749775784</v>
+        <v>1.000347969829825</v>
       </c>
       <c r="L21">
-        <v>1.019798947617849</v>
+        <v>0.986566996480374</v>
       </c>
       <c r="M21">
-        <v>1.026866321633886</v>
+        <v>0.9161491166638591</v>
       </c>
       <c r="N21">
-        <v>1.011022414869456</v>
+        <v>0.9997891462222469</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.013454355960376</v>
+        <v>0.9524480376666259</v>
       </c>
       <c r="D22">
-        <v>1.020402151953562</v>
+        <v>0.9814700735220588</v>
       </c>
       <c r="E22">
-        <v>1.015465166539779</v>
+        <v>0.96718092715549</v>
       </c>
       <c r="F22">
-        <v>1.021590343868565</v>
+        <v>0.8861947214461575</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027749091480602</v>
+        <v>1.02373008999626</v>
       </c>
       <c r="J22">
-        <v>1.020457403734944</v>
+        <v>0.9854271214836902</v>
       </c>
       <c r="K22">
-        <v>1.024172577787411</v>
+        <v>0.9974177714009396</v>
       </c>
       <c r="L22">
-        <v>1.019255433914406</v>
+        <v>0.9834318299538943</v>
       </c>
       <c r="M22">
-        <v>1.025356026269213</v>
+        <v>0.9044165894481702</v>
       </c>
       <c r="N22">
-        <v>1.010839140817871</v>
+        <v>0.9986860200517621</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.013877586721547</v>
+        <v>0.9550115127330937</v>
       </c>
       <c r="D23">
-        <v>1.020716978161476</v>
+        <v>0.9833972364687316</v>
       </c>
       <c r="E23">
-        <v>1.015824675110585</v>
+        <v>0.9692268541483853</v>
       </c>
       <c r="F23">
-        <v>1.022464634817186</v>
+        <v>0.893071114260929</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027872814493376</v>
+        <v>1.02486516229311</v>
       </c>
       <c r="J23">
-        <v>1.020744593246387</v>
+        <v>0.9871489393498968</v>
       </c>
       <c r="K23">
-        <v>1.024416677578936</v>
+        <v>0.9989843047222496</v>
       </c>
       <c r="L23">
-        <v>1.019543635118603</v>
+        <v>0.985106005669231</v>
       </c>
       <c r="M23">
-        <v>1.026157503493056</v>
+        <v>0.9107357870190652</v>
       </c>
       <c r="N23">
-        <v>1.010936346400376</v>
+        <v>0.9992752917050929</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.01554249010948</v>
+        <v>0.9647253758424404</v>
       </c>
       <c r="D24">
-        <v>1.021954458510562</v>
+        <v>0.9906834986903578</v>
       </c>
       <c r="E24">
-        <v>1.017239759949103</v>
+        <v>0.976998407776809</v>
       </c>
       <c r="F24">
-        <v>1.025888713532147</v>
+        <v>0.917961859269272</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028354200214374</v>
+        <v>1.029054907546048</v>
       </c>
       <c r="J24">
-        <v>1.021872869034841</v>
+        <v>0.9936523296238633</v>
       </c>
       <c r="K24">
-        <v>1.025374277283963</v>
+        <v>1.004876222025289</v>
       </c>
       <c r="L24">
-        <v>1.020676620974563</v>
+        <v>0.9914418678185941</v>
       </c>
       <c r="M24">
-        <v>1.029294443414412</v>
+        <v>0.9336010155641089</v>
       </c>
       <c r="N24">
-        <v>1.011317963669427</v>
+        <v>1.001501081446755</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.017471913078117</v>
+        <v>0.9753262395938749</v>
       </c>
       <c r="D25">
-        <v>1.023386510215152</v>
+        <v>0.9986117855113593</v>
       </c>
       <c r="E25">
-        <v>1.018881409605203</v>
+        <v>0.9855156059037566</v>
       </c>
       <c r="F25">
-        <v>1.029826705752743</v>
+        <v>0.9434012941978461</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028901136892453</v>
+        <v>1.033441571124908</v>
       </c>
       <c r="J25">
-        <v>1.023177363495915</v>
+        <v>1.00071349380695</v>
       </c>
       <c r="K25">
-        <v>1.026478569510703</v>
+        <v>1.01123169001427</v>
       </c>
       <c r="L25">
-        <v>1.021988076057855</v>
+        <v>0.9983430135037266</v>
       </c>
       <c r="M25">
-        <v>1.032898126495004</v>
+        <v>0.9569467411738087</v>
       </c>
       <c r="N25">
-        <v>1.011758615361263</v>
+        <v>1.003917197247643</v>
       </c>
     </row>
   </sheetData>
